--- a/Expert_Elicitation/expertelicitation_table.xlsx
+++ b/Expert_Elicitation/expertelicitation_table.xlsx
@@ -20,7 +20,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
   <si>
     <t>Variable</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>forest cover model belief</t>
+  </si>
+  <si>
+    <t>mean_logitscale</t>
+  </si>
+  <si>
+    <t>var_logitscale</t>
   </si>
 </sst>
 </file>
@@ -202,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -282,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -329,8 +335,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="110">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -441,23 +478,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="118">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -513,6 +563,10 @@
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -566,6 +620,10 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -803,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134485128"/>
-        <c:axId val="2134050680"/>
+        <c:axId val="2121095544"/>
+        <c:axId val="2121097592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134485128"/>
+        <c:axId val="2121095544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,19 +887,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134050680"/>
+        <c:crossAx val="2121097592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134050680"/>
+        <c:axId val="2121097592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,14 +920,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134485128"/>
+        <c:crossAx val="2121095544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1246,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1260,7 +1316,7 @@
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="F1" t="s">
         <v>6</v>
       </c>
@@ -1274,53 +1330,71 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="16" thickBot="1">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1">
-      <c r="A3" s="5" t="s">
+      <c r="K2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1330,8 +1404,20 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1341,8 +1427,20 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1352,8 +1450,20 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="F6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1363,8 +1473,20 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1374,8 +1496,20 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1385,134 +1519,162 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="F9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3">
         <v>100</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="12">
         <v>0.9</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="12">
         <v>0.2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="12">
         <v>0.95</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="12">
         <v>0.8</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="15">
         <f>I11/SUM($I11:$I13)</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:12" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
         <v>50</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>0.5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0.8</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.8</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>I12/SUM($I11:$I13)</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:12" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>0.3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.5</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.6</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>I13/SUM($I11:$I13)</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f>F14*J11+G14*J12+H14*J13</f>
         <v>4.1363636363636359E-3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f>AVERAGE((F11-F12)/($E11-$E12),(F12-F13)/($E12-$E13))</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f>AVERAGE((G11-G12)/($E11-$E12),(G12-G13)/($E12-$E13))</f>
         <v>2E-3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f>AVERAGE((H11-H12)/($E11-$E12),(H12-H13)/($E12-$E13))</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="10"/>
+      <c r="K14" s="2">
+        <f>LOG(E14/(1-E14))</f>
+        <v>-2.381581163040019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1528,24 +1690,24 @@
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>0.9</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0.2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.95</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>0.7</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f>I15/SUM($I15:$I17)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1561,19 +1723,19 @@
       <c r="E16">
         <v>50</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>0.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>0.2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.8</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>0.5</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>I16/SUM($I15:$I17)</f>
         <v>0.35714285714285715</v>
       </c>
@@ -1594,43 +1756,43 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>0.3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0.5</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>0.2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>I17/SUM($I15:$I17)</f>
         <v>0.14285714285714288</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:10" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <f>F18*J15+G18*J16+H18*J17</f>
         <v>4.3571428571428572E-3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f>AVERAGE((F15-F16)/($E15-$E16),(F16-F17)/($E16-$E17))</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f>AVERAGE((G15-G16)/($E15-$E16),(G16-G17)/($E16-$E17))</f>
         <v>2E-3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f>AVERAGE((H15-H16)/($E15-$E16),(H16-H17)/($E16-$E17))</f>
         <v>4.4999999999999997E-3</v>
       </c>
@@ -1651,19 +1813,19 @@
       <c r="E19">
         <v>100</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>0.5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0.2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.7</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>0.7</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f>I19/SUM($I19:$I21)</f>
         <v>0.5</v>
       </c>
@@ -1684,19 +1846,19 @@
       <c r="E20">
         <v>50</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>0.4</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>0.1</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.5</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>0.5</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>I20/SUM($I19:$I21)</f>
         <v>0.35714285714285715</v>
       </c>
@@ -1717,43 +1879,43 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0.1</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0.2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.2</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f>I21/SUM($I19:$I21)</f>
         <v>0.14285714285714288</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f>F22*J19+G22*J20+H22*J21</f>
         <v>3.4285714285714284E-3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f>AVERAGE((F19-F20)/($E19-$E20),(F20-F21)/($E20-$E21))</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f>AVERAGE((G19-G20)/($E19-$E20),(G20-G21)/($E20-$E21))</f>
         <v>2E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f>AVERAGE((H19-H20)/($E19-$E20),(H20-H21)/($E20-$E21))</f>
         <v>4.9999999999999992E-3</v>
       </c>
@@ -1774,19 +1936,19 @@
       <c r="E23">
         <v>100</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>0.3</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.4</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>0.7</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f>I23/SUM($I23:$I25)</f>
         <v>0.5</v>
       </c>
@@ -1807,19 +1969,19 @@
       <c r="E24">
         <v>50</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>0.2</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>0.3</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>0.5</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f>I24/SUM($I23:$I25)</f>
         <v>0.35714285714285715</v>
       </c>
@@ -1840,161 +2002,161 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>0.05</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>0.1</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>0.2</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>I25/SUM($I23:$I25)</f>
         <v>0.14285714285714288</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:10" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <f>F26*J23+G26*J24+H26*J25</f>
         <v>1.6785714285714286E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f>AVERAGE((F23-F24)/($E23-$E24),(F24-F25)/($E24-$E25))</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f>AVERAGE((G23-G24)/($E23-$E24),(G24-G25)/($E24-$E25))</f>
         <v>0</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f>AVERAGE((H23-H24)/($E23-$E24),(H24-H25)/($E24-$E25))</f>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:10" s="4" customFormat="1">
+      <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="4">
         <v>100</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>0.9</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>0.2</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0.95</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>0.8</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>I27/SUM($I27:$I29)</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1">
+      <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3">
         <v>50</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>0.5</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>0.2</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>0.8</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>0.8</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f>I28/SUM($I27:$I29)</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:10" s="3" customFormat="1">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>0.3</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>0.5</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>0.6</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>I29/SUM($I27:$I29)</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:10" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <f>F30*J27+G30*J28+H30*J29</f>
         <v>4.1363636363636359E-3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f>AVERAGE((F27-F28)/($E27-$E28),(F28-F29)/($E28-$E29))</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f>AVERAGE((G27-G28)/($E27-$E28),(G28-G29)/($E28-$E29))</f>
         <v>2E-3</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f>AVERAGE((H27-H28)/($E27-$E28),(H28-H29)/($E28-$E29))</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
@@ -2012,19 +2174,19 @@
       <c r="E31">
         <v>100</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>0.9</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>0.2</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>0.95</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>0.7</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>I31/SUM($I31:$I33)</f>
         <v>0.5</v>
       </c>
@@ -2045,19 +2207,19 @@
       <c r="E32">
         <v>50</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>0.5</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>0.2</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>0.8</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>0.5</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f>I32/SUM($I31:$I33)</f>
         <v>0.35714285714285715</v>
       </c>
@@ -2078,43 +2240,43 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>0.3</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>0.5</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>0.2</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>I33/SUM($I31:$I33)</f>
         <v>0.14285714285714288</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <f>F34*J31+G34*J32+H34*J33</f>
         <v>4.3571428571428572E-3</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f>AVERAGE((F31-F32)/($E31-$E32),(F32-F33)/($E32-$E33))</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <f>AVERAGE((G31-G32)/($E31-$E32),(G32-G33)/($E32-$E33))</f>
         <v>2E-3</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f>AVERAGE((H31-H32)/($E31-$E32),(H32-H33)/($E32-$E33))</f>
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2135,19 +2297,19 @@
       <c r="E35">
         <v>100</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>0.5</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>0.2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0.7</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>0.7</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>I35/SUM($I35:$I37)</f>
         <v>0.5</v>
       </c>
@@ -2168,19 +2330,19 @@
       <c r="E36">
         <v>50</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>0.4</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>0.1</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>0.5</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>0.5</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f>I36/SUM($I35:$I37)</f>
         <v>0.35714285714285715</v>
       </c>
@@ -2201,43 +2363,43 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>0.1</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>0.2</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>0.2</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f>I37/SUM($I35:$I37)</f>
         <v>0.14285714285714288</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <f>F38*J35+G38*J36+H38*J37</f>
         <v>3.4285714285714284E-3</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f>AVERAGE((F35-F36)/($E35-$E36),(F36-F37)/($E36-$E37))</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f>AVERAGE((G35-G36)/($E35-$E36),(G36-G37)/($E36-$E37))</f>
         <v>2E-3</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f>AVERAGE((H35-H36)/($E35-$E36),(H36-H37)/($E36-$E37))</f>
         <v>4.9999999999999992E-3</v>
       </c>
@@ -2258,19 +2420,19 @@
       <c r="E39">
         <v>100</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>0.3</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>0</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>0.4</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>0.7</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>I39/SUM($I39:$I41)</f>
         <v>0.5</v>
       </c>
@@ -2291,19 +2453,19 @@
       <c r="E40">
         <v>50</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>0.2</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>0.3</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>0.5</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f>I40/SUM($I39:$I41)</f>
         <v>0.35714285714285715</v>
       </c>
@@ -2324,43 +2486,43 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>0.05</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>0.1</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>0.2</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f>I41/SUM($I39:$I41)</f>
         <v>0.14285714285714288</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10" s="2" customFormat="1">
+      <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <f>F42*J39+G42*J40+H42*J41</f>
         <v>1.6785714285714286E-3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f>AVERAGE((F39-F40)/($E39-$E40),(F40-F41)/($E40-$E41))</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <f>AVERAGE((G39-G40)/($E39-$E40),(G40-G41)/($E40-$E41))</f>
         <v>0</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <f>AVERAGE((H39-H40)/($E39-$E40),(H40-H41)/($E40-$E41))</f>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2372,7 +2534,7 @@
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -2380,7 +2542,7 @@
       <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -2388,7 +2550,7 @@
       <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>0.3</v>
       </c>
     </row>
@@ -2396,7 +2558,7 @@
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f>1-(SUM(F43:F45))</f>
         <v>0.30000000000000004</v>
       </c>

--- a/Expert_Elicitation/expertelicitation_table.xlsx
+++ b/Expert_Elicitation/expertelicitation_table.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="24600" yWindow="-19340" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="expertelictation" sheetId="1" r:id="rId1"/>
     <sheet name="plots" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>Variable</t>
   </si>
@@ -201,6 +202,12 @@
   </si>
   <si>
     <t>var_logitscale</t>
+  </si>
+  <si>
+    <t>Regional Differences</t>
+  </si>
+  <si>
+    <t>region1</t>
   </si>
 </sst>
 </file>
@@ -861,11 +868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121095544"/>
-        <c:axId val="2121097592"/>
+        <c:axId val="2092083592"/>
+        <c:axId val="2093447896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121095544"/>
+        <c:axId val="2092083592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,12 +900,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121097592"/>
+        <c:crossAx val="2093447896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121097592"/>
+        <c:axId val="2093447896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121095544"/>
+        <c:crossAx val="2092083592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1304,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2590,4 +2597,37 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>